--- a/data/pca/factorExposure/factorExposure_2009-11-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-11-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.005798042509526274</v>
+        <v>0.01686594006186119</v>
       </c>
       <c r="C2">
-        <v>0.006959142830530961</v>
+        <v>0.001021578597575999</v>
       </c>
       <c r="D2">
-        <v>0.006101543909439</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.007955225008837549</v>
+      </c>
+      <c r="E2">
+        <v>0.001046691355168193</v>
+      </c>
+      <c r="F2">
+        <v>0.01191972973853269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.05727724445042008</v>
+        <v>0.09394153107211137</v>
       </c>
       <c r="C4">
-        <v>0.09162035429997487</v>
+        <v>0.0149226956621629</v>
       </c>
       <c r="D4">
-        <v>0.05326919421159269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08469908507044827</v>
+      </c>
+      <c r="E4">
+        <v>0.02836121549755694</v>
+      </c>
+      <c r="F4">
+        <v>-0.03155763025081738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.0754690606900157</v>
+        <v>0.1576638084034808</v>
       </c>
       <c r="C6">
-        <v>0.1110360295232388</v>
+        <v>0.02564205033071102</v>
       </c>
       <c r="D6">
-        <v>-0.03988803797562183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02102595383429243</v>
+      </c>
+      <c r="E6">
+        <v>0.01230750672252802</v>
+      </c>
+      <c r="F6">
+        <v>-0.04445888999322471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.02886185040908133</v>
+        <v>0.06280988777931434</v>
       </c>
       <c r="C7">
-        <v>0.0690600592997738</v>
+        <v>-0.001588310169192883</v>
       </c>
       <c r="D7">
-        <v>0.03344976064243529</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0527778485558899</v>
+      </c>
+      <c r="E7">
+        <v>0.009410069041442775</v>
+      </c>
+      <c r="F7">
+        <v>-0.04723163500391223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.01489803710686437</v>
+        <v>0.05694616952138817</v>
       </c>
       <c r="C8">
-        <v>0.05998960498707701</v>
+        <v>-0.01352148109304698</v>
       </c>
       <c r="D8">
-        <v>-0.0003988678538649446</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03305954818360777</v>
+      </c>
+      <c r="E8">
+        <v>0.01715402182315718</v>
+      </c>
+      <c r="F8">
+        <v>0.02784022745816445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.04965685760844726</v>
+        <v>0.07130964198887532</v>
       </c>
       <c r="C9">
-        <v>0.08033601600491287</v>
+        <v>0.01063379473477177</v>
       </c>
       <c r="D9">
-        <v>0.04782341168173119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08620744507223532</v>
+      </c>
+      <c r="E9">
+        <v>0.02249730319687605</v>
+      </c>
+      <c r="F9">
+        <v>-0.04710679943086348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.02679158025965609</v>
+        <v>0.09463241620142754</v>
       </c>
       <c r="C10">
-        <v>0.03822560762308003</v>
+        <v>0.02105194148560707</v>
       </c>
       <c r="D10">
-        <v>-0.132529817074101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1699093680952263</v>
+      </c>
+      <c r="E10">
+        <v>-0.03517598937006312</v>
+      </c>
+      <c r="F10">
+        <v>0.05358731828514271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.05278269363062114</v>
+        <v>0.08759038275947249</v>
       </c>
       <c r="C11">
-        <v>0.08271096491056296</v>
+        <v>0.0104873168915635</v>
       </c>
       <c r="D11">
-        <v>0.07497780844478893</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1169538326658369</v>
+      </c>
+      <c r="E11">
+        <v>0.04625929685102187</v>
+      </c>
+      <c r="F11">
+        <v>-0.02044416286146964</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.05455185241357581</v>
+        <v>0.09213499865568185</v>
       </c>
       <c r="C12">
-        <v>0.09186344489781187</v>
+        <v>0.007742867657418796</v>
       </c>
       <c r="D12">
-        <v>0.0792765130052228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.131869424252003</v>
+      </c>
+      <c r="E12">
+        <v>0.04772908509537419</v>
+      </c>
+      <c r="F12">
+        <v>-0.02713616549133544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.02123914573628483</v>
+        <v>0.04203737317449628</v>
       </c>
       <c r="C13">
-        <v>0.03707894511081784</v>
+        <v>0.002821675818584599</v>
       </c>
       <c r="D13">
-        <v>0.0338535340154337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05308636728987282</v>
+      </c>
+      <c r="E13">
+        <v>-0.007775055332301981</v>
+      </c>
+      <c r="F13">
+        <v>-0.00258901390598299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02127945655363037</v>
+        <v>0.02266229157478053</v>
       </c>
       <c r="C14">
-        <v>0.01101508289139218</v>
+        <v>0.01354992418582821</v>
       </c>
       <c r="D14">
-        <v>0.01395938959544341</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03337873749645347</v>
+      </c>
+      <c r="E14">
+        <v>0.0177115841084304</v>
+      </c>
+      <c r="F14">
+        <v>-0.01445456598757947</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.02120570897291679</v>
+        <v>0.03318841961003156</v>
       </c>
       <c r="C15">
-        <v>0.03126680900169398</v>
+        <v>0.00478191810688829</v>
       </c>
       <c r="D15">
-        <v>0.01213673990047309</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04490338865697849</v>
+      </c>
+      <c r="E15">
+        <v>0.005706986773274326</v>
+      </c>
+      <c r="F15">
+        <v>-0.02287843301604955</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.04149739391220379</v>
+        <v>0.07453686717686686</v>
       </c>
       <c r="C16">
-        <v>0.08056579638094931</v>
+        <v>0.001351015539618224</v>
       </c>
       <c r="D16">
-        <v>0.07084958548271139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1264214969423658</v>
+      </c>
+      <c r="E16">
+        <v>0.0620936422096014</v>
+      </c>
+      <c r="F16">
+        <v>-0.02346033848641515</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03299788619097523</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003579229957168801</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01859170454681615</v>
+      </c>
+      <c r="E18">
+        <v>-0.007739536257330488</v>
+      </c>
+      <c r="F18">
+        <v>0.006893084617095006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.02972236048294374</v>
+        <v>0.06083724756148033</v>
       </c>
       <c r="C20">
-        <v>0.05468446660677632</v>
+        <v>0.0002043522070441903</v>
       </c>
       <c r="D20">
-        <v>0.02644872045144752</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0774101959969921</v>
+      </c>
+      <c r="E20">
+        <v>0.05529166353800549</v>
+      </c>
+      <c r="F20">
+        <v>-0.02299037900469202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02267825804052786</v>
+        <v>0.04099794455369839</v>
       </c>
       <c r="C21">
-        <v>0.02494741016282228</v>
+        <v>0.006546190874262896</v>
       </c>
       <c r="D21">
-        <v>0.006798589208514691</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03684914608418265</v>
+      </c>
+      <c r="E21">
+        <v>-0.005326046916025005</v>
+      </c>
+      <c r="F21">
+        <v>0.02425384348741491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.01280837697178506</v>
+        <v>0.04356889096516663</v>
       </c>
       <c r="C22">
-        <v>0.02681734686070165</v>
+        <v>0.0009856145689395041</v>
       </c>
       <c r="D22">
-        <v>-0.02335248746566879</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.005238132038700736</v>
+      </c>
+      <c r="E22">
+        <v>0.03240290916172338</v>
+      </c>
+      <c r="F22">
+        <v>0.04171943535520133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.01278615175049837</v>
+        <v>0.04355450583671509</v>
       </c>
       <c r="C23">
-        <v>0.02677467941295576</v>
+        <v>0.0009812313249894951</v>
       </c>
       <c r="D23">
-        <v>-0.02338496220485459</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.0052428849016786</v>
+      </c>
+      <c r="E23">
+        <v>0.03260425749402616</v>
+      </c>
+      <c r="F23">
+        <v>0.0416827130228786</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.04476380776499954</v>
+        <v>0.08023737387812087</v>
       </c>
       <c r="C24">
-        <v>0.08734002682556891</v>
+        <v>0.001830233859701019</v>
       </c>
       <c r="D24">
-        <v>0.07915157761220309</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1218995498416719</v>
+      </c>
+      <c r="E24">
+        <v>0.04945136010592005</v>
+      </c>
+      <c r="F24">
+        <v>-0.0254590147145626</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.04716204346988522</v>
+        <v>0.08485837303539309</v>
       </c>
       <c r="C25">
-        <v>0.08507234744258563</v>
+        <v>0.004269137213259689</v>
       </c>
       <c r="D25">
-        <v>0.08127903726947104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1095824064428809</v>
+      </c>
+      <c r="E25">
+        <v>0.0323356903690757</v>
+      </c>
+      <c r="F25">
+        <v>-0.02607432463510927</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.03568185114338805</v>
+        <v>0.05801779545945883</v>
       </c>
       <c r="C26">
-        <v>0.03911500689143609</v>
+        <v>0.01419803256346611</v>
       </c>
       <c r="D26">
-        <v>0.006762721169902751</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04010109667104416</v>
+      </c>
+      <c r="E26">
+        <v>0.02767513398404571</v>
+      </c>
+      <c r="F26">
+        <v>0.007567713951836919</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.03912309144463504</v>
+        <v>0.1401707405841261</v>
       </c>
       <c r="C28">
-        <v>0.084736577328495</v>
+        <v>0.02078466424165022</v>
       </c>
       <c r="D28">
-        <v>-0.2402343575105109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2617094423734679</v>
+      </c>
+      <c r="E28">
+        <v>-0.06706281918116024</v>
+      </c>
+      <c r="F28">
+        <v>-0.009039210849571511</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01878587821414043</v>
+        <v>0.02726912207946434</v>
       </c>
       <c r="C29">
-        <v>0.01735492307842001</v>
+        <v>0.00830558210675268</v>
       </c>
       <c r="D29">
-        <v>0.006853543524736903</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03162909599030009</v>
+      </c>
+      <c r="E29">
+        <v>0.01120826344806743</v>
+      </c>
+      <c r="F29">
+        <v>0.01154474419266028</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.0482569005198593</v>
+        <v>0.06081941653875937</v>
       </c>
       <c r="C30">
-        <v>0.1046150711425324</v>
+        <v>0.00337533111336923</v>
       </c>
       <c r="D30">
-        <v>0.05406070344017212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08817222368960828</v>
+      </c>
+      <c r="E30">
+        <v>0.01860185935837139</v>
+      </c>
+      <c r="F30">
+        <v>-0.08128847744365701</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02806477022377543</v>
+        <v>0.05006613716585476</v>
       </c>
       <c r="C31">
-        <v>0.02253612341992155</v>
+        <v>0.01510525231650973</v>
       </c>
       <c r="D31">
-        <v>0.01696240246845002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02508503277998759</v>
+      </c>
+      <c r="E31">
+        <v>0.02773052844277732</v>
+      </c>
+      <c r="F31">
+        <v>0.002248689816907253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.02094744420415174</v>
+        <v>0.05000288795802587</v>
       </c>
       <c r="C32">
-        <v>0.04618943805669589</v>
+        <v>-0.001617875459839863</v>
       </c>
       <c r="D32">
-        <v>0.00577542655138167</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0369020497033974</v>
+      </c>
+      <c r="E32">
+        <v>0.03172016015271441</v>
+      </c>
+      <c r="F32">
+        <v>-0.002973219438630079</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.05192460642839487</v>
+        <v>0.09004705862887306</v>
       </c>
       <c r="C33">
-        <v>0.09365736755528498</v>
+        <v>0.007292299669301098</v>
       </c>
       <c r="D33">
-        <v>0.05316934752880995</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.09999260233717212</v>
+      </c>
+      <c r="E33">
+        <v>0.04409126154997626</v>
+      </c>
+      <c r="F33">
+        <v>-0.03555390303582212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.04698934371652486</v>
+        <v>0.06797860390319989</v>
       </c>
       <c r="C34">
-        <v>0.0732297110226335</v>
+        <v>0.01019606462434918</v>
       </c>
       <c r="D34">
-        <v>0.07039753055391811</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1081896856223042</v>
+      </c>
+      <c r="E34">
+        <v>0.03469173084569779</v>
+      </c>
+      <c r="F34">
+        <v>-0.03215134448627197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01000128715473454</v>
+        <v>0.02448569893919074</v>
       </c>
       <c r="C35">
-        <v>0.01759401272521839</v>
+        <v>0.002351399683068745</v>
       </c>
       <c r="D35">
-        <v>0.004077090778368776</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.0115732700358754</v>
+      </c>
+      <c r="E35">
+        <v>0.01160972320790283</v>
+      </c>
+      <c r="F35">
+        <v>-0.0001759305414252422</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01382928654127395</v>
+        <v>0.02783262404022499</v>
       </c>
       <c r="C36">
-        <v>0.005697967177639231</v>
+        <v>0.006962812275015993</v>
       </c>
       <c r="D36">
-        <v>0.02666025989607277</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03931424600551699</v>
+      </c>
+      <c r="E36">
+        <v>0.01618281167425692</v>
+      </c>
+      <c r="F36">
+        <v>-0.01473493374965923</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0002794602710395842</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0001206932928062562</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.0002372623548202521</v>
+      </c>
+      <c r="E37">
+        <v>-0.0003829167942533713</v>
+      </c>
+      <c r="F37">
+        <v>-0.0006330668361999803</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0012315382822644</v>
+        <v>0.001406640412670945</v>
       </c>
       <c r="C38">
-        <v>0.002678379219452635</v>
+        <v>0.000244863183777563</v>
       </c>
       <c r="D38">
-        <v>-0.002153896366972489</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0005298536932992572</v>
+      </c>
+      <c r="E38">
+        <v>0.0001649730880686745</v>
+      </c>
+      <c r="F38">
+        <v>0.0008705650282534854</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.07273066800373654</v>
+        <v>0.1053622700188297</v>
       </c>
       <c r="C39">
-        <v>0.1214116760529947</v>
+        <v>0.01570555858951103</v>
       </c>
       <c r="D39">
-        <v>0.1226147245480167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1537432007277208</v>
+      </c>
+      <c r="E39">
+        <v>0.05867126162938961</v>
+      </c>
+      <c r="F39">
+        <v>-0.02934736567277751</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01833647972626373</v>
+        <v>0.04242367263425059</v>
       </c>
       <c r="C40">
-        <v>0.01866511438249601</v>
+        <v>0.006851232181497097</v>
       </c>
       <c r="D40">
-        <v>-0.01069422877350495</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03152938450351166</v>
+      </c>
+      <c r="E40">
+        <v>0.003417596380122511</v>
+      </c>
+      <c r="F40">
+        <v>0.01678293672575135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01494566196762735</v>
+        <v>0.02811404515441307</v>
       </c>
       <c r="C41">
-        <v>0.01330140743696314</v>
+        <v>0.006853723627078661</v>
       </c>
       <c r="D41">
-        <v>-0.007051864969772097</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.009878905641049417</v>
+      </c>
+      <c r="E41">
+        <v>0.01232431268810419</v>
+      </c>
+      <c r="F41">
+        <v>0.00624713977731096</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01751413651136441</v>
+        <v>0.04067499140957904</v>
       </c>
       <c r="C43">
-        <v>0.01709630190773684</v>
+        <v>0.006822471688196269</v>
       </c>
       <c r="D43">
-        <v>0.007603103098986197</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01915565428272837</v>
+      </c>
+      <c r="E43">
+        <v>0.02430228687128416</v>
+      </c>
+      <c r="F43">
+        <v>0.01296836764735331</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06417743858192583</v>
+        <v>0.07961172246469567</v>
       </c>
       <c r="C44">
-        <v>0.09281358437828217</v>
+        <v>0.01974252898463288</v>
       </c>
       <c r="D44">
-        <v>0.05073199859349246</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09745069889232842</v>
+      </c>
+      <c r="E44">
+        <v>0.06388219667534423</v>
+      </c>
+      <c r="F44">
+        <v>-0.1550814406308176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.00703823693681985</v>
+        <v>0.02320270266967345</v>
       </c>
       <c r="C46">
-        <v>0.005135878388125919</v>
+        <v>0.003330635791840173</v>
       </c>
       <c r="D46">
-        <v>-0.0009005930989133812</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01256473507406622</v>
+      </c>
+      <c r="E46">
+        <v>0.02172005625385147</v>
+      </c>
+      <c r="F46">
+        <v>0.006674370810691294</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.0203971533689048</v>
+        <v>0.05162572598943566</v>
       </c>
       <c r="C47">
-        <v>0.03221703810396264</v>
+        <v>0.003227200397379362</v>
       </c>
       <c r="D47">
-        <v>-0.0303201267092366</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01412447966026976</v>
+      </c>
+      <c r="E47">
+        <v>0.02369469285690836</v>
+      </c>
+      <c r="F47">
+        <v>0.03233139056593945</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.02359334889815755</v>
+        <v>0.05009929912814368</v>
       </c>
       <c r="C48">
-        <v>0.04277145813034661</v>
+        <v>0.002214268872683026</v>
       </c>
       <c r="D48">
-        <v>0.03028525322565347</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05010206476314687</v>
+      </c>
+      <c r="E48">
+        <v>-0.006250759429759252</v>
+      </c>
+      <c r="F48">
+        <v>-0.0100818960493923</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1026953136439013</v>
+        <v>0.2009197116395984</v>
       </c>
       <c r="C49">
-        <v>0.2047026120250509</v>
+        <v>0.01898424202341824</v>
       </c>
       <c r="D49">
-        <v>-0.02763710684742248</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.006859073068567327</v>
+      </c>
+      <c r="E49">
+        <v>0.03200255696399445</v>
+      </c>
+      <c r="F49">
+        <v>-0.03686112194765918</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.02707150853125945</v>
+        <v>0.05049788852066744</v>
       </c>
       <c r="C50">
-        <v>0.0295388894781438</v>
+        <v>0.01102965426721751</v>
       </c>
       <c r="D50">
-        <v>0.008377055053489171</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02387575860734383</v>
+      </c>
+      <c r="E50">
+        <v>0.02956335431915743</v>
+      </c>
+      <c r="F50">
+        <v>-0.009742382744357077</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0004269648575596834</v>
+        <v>0.0004147991536000156</v>
       </c>
       <c r="C51">
-        <v>0.0009040916411284058</v>
+        <v>0.000117242551214416</v>
       </c>
       <c r="D51">
-        <v>-0.001035068877091932</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0003035287071674209</v>
+      </c>
+      <c r="E51">
+        <v>8.134612702963653e-05</v>
+      </c>
+      <c r="F51">
+        <v>-0.0009992240135113109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.07525276046388879</v>
+        <v>0.1462715608680021</v>
       </c>
       <c r="C52">
-        <v>0.1469336070465909</v>
+        <v>0.01607975203959464</v>
       </c>
       <c r="D52">
-        <v>0.03387884258093155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04356918863427073</v>
+      </c>
+      <c r="E52">
+        <v>0.01968657199021322</v>
+      </c>
+      <c r="F52">
+        <v>-0.04278715603165168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.08248520157740287</v>
+        <v>0.1716920203984479</v>
       </c>
       <c r="C53">
-        <v>0.1625706308763425</v>
+        <v>0.01915194938671235</v>
       </c>
       <c r="D53">
-        <v>0.0009634804697197651</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.00583556597763994</v>
+      </c>
+      <c r="E53">
+        <v>0.0312614776946022</v>
+      </c>
+      <c r="F53">
+        <v>-0.07346917771310101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.02296720268750623</v>
+        <v>0.02198066098410495</v>
       </c>
       <c r="C54">
-        <v>0.02573467130404621</v>
+        <v>0.01210130263049395</v>
       </c>
       <c r="D54">
-        <v>0.006868527631400531</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03435378967591828</v>
+      </c>
+      <c r="E54">
+        <v>0.01841383390620927</v>
+      </c>
+      <c r="F54">
+        <v>0.005235122876282251</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.05402468598277151</v>
+        <v>0.114005205002617</v>
       </c>
       <c r="C55">
-        <v>0.09450532761653363</v>
+        <v>0.01668014556081885</v>
       </c>
       <c r="D55">
-        <v>-0.006441817635750029</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008537583297850057</v>
+      </c>
+      <c r="E55">
+        <v>0.02752377471684647</v>
+      </c>
+      <c r="F55">
+        <v>-0.04775009524868638</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.0779727209547685</v>
+        <v>0.176844188120191</v>
       </c>
       <c r="C56">
-        <v>0.1543750704005493</v>
+        <v>0.0168007256017936</v>
       </c>
       <c r="D56">
-        <v>-0.0173578143610688</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0007734716241224402</v>
+      </c>
+      <c r="E56">
+        <v>0.03468799608009825</v>
+      </c>
+      <c r="F56">
+        <v>-0.05254801949516862</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.02368989110328894</v>
+        <v>0.04618963567492902</v>
       </c>
       <c r="C58">
-        <v>0.03820620095240593</v>
+        <v>6.531766083088106e-05</v>
       </c>
       <c r="D58">
-        <v>0.03590415465247479</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.06796298701046175</v>
+      </c>
+      <c r="E58">
+        <v>0.02714014773396129</v>
+      </c>
+      <c r="F58">
+        <v>0.03573599426746236</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.05568918637159147</v>
+        <v>0.1681684920552139</v>
       </c>
       <c r="C59">
-        <v>0.1201596041748903</v>
+        <v>0.02134150548097483</v>
       </c>
       <c r="D59">
-        <v>-0.2152712539640769</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2189782369701788</v>
+      </c>
+      <c r="E59">
+        <v>-0.04608663310191691</v>
+      </c>
+      <c r="F59">
+        <v>0.03620733596565377</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.09828261610495086</v>
+        <v>0.2318672220306574</v>
       </c>
       <c r="C60">
-        <v>0.2422411212284709</v>
+        <v>-0.002765919949849164</v>
       </c>
       <c r="D60">
-        <v>0.02293587783031844</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04215671984400847</v>
+      </c>
+      <c r="E60">
+        <v>0.01130105620822492</v>
+      </c>
+      <c r="F60">
+        <v>0.004428849494823669</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.06004474721365039</v>
+        <v>0.08156659188914754</v>
       </c>
       <c r="C61">
-        <v>0.1062888370889646</v>
+        <v>0.01151470980070186</v>
       </c>
       <c r="D61">
-        <v>0.07191269582228572</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1172035292809304</v>
+      </c>
+      <c r="E61">
+        <v>0.03878238868590402</v>
+      </c>
+      <c r="F61">
+        <v>-0.01092173094265601</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.08007182681574995</v>
+        <v>0.1697533507446039</v>
       </c>
       <c r="C62">
-        <v>0.1529647912293297</v>
+        <v>0.0200415336035439</v>
       </c>
       <c r="D62">
-        <v>-0.01331144576815691</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.005690393456637174</v>
+      </c>
+      <c r="E62">
+        <v>0.03396258454845437</v>
+      </c>
+      <c r="F62">
+        <v>-0.03396443614072691</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.02300453894637025</v>
+        <v>0.04615997715275123</v>
       </c>
       <c r="C63">
-        <v>0.04134900563302855</v>
+        <v>0.001758017096393648</v>
       </c>
       <c r="D63">
-        <v>0.03624271700013707</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.05848065147268392</v>
+      </c>
+      <c r="E63">
+        <v>0.02169056591799125</v>
+      </c>
+      <c r="F63">
+        <v>-0.004378987375725379</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.05061890268983286</v>
+        <v>0.1102181071984097</v>
       </c>
       <c r="C64">
-        <v>0.08285187000315501</v>
+        <v>0.01108125856647632</v>
       </c>
       <c r="D64">
-        <v>0.007071524840889756</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04319621639270021</v>
+      </c>
+      <c r="E64">
+        <v>0.02447772095784354</v>
+      </c>
+      <c r="F64">
+        <v>-0.02575127368007006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.07589615667341983</v>
+        <v>0.1476427933101494</v>
       </c>
       <c r="C65">
-        <v>0.1020720368933272</v>
+        <v>0.03261647384613763</v>
       </c>
       <c r="D65">
-        <v>-0.02902652853494768</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04000670591251097</v>
+      </c>
+      <c r="E65">
+        <v>0.005848630254556762</v>
+      </c>
+      <c r="F65">
+        <v>-0.03931594039531848</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.08392504085459106</v>
+        <v>0.1246794965935295</v>
       </c>
       <c r="C66">
-        <v>0.1557138823942638</v>
+        <v>0.013781935969809</v>
       </c>
       <c r="D66">
-        <v>0.1099782436610026</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1420321587303709</v>
+      </c>
+      <c r="E66">
+        <v>0.06537775029350454</v>
+      </c>
+      <c r="F66">
+        <v>-0.03245083871413444</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.03090550528572977</v>
+        <v>0.06057416864472349</v>
       </c>
       <c r="C67">
-        <v>0.06079398766991095</v>
+        <v>0.003340789108444726</v>
       </c>
       <c r="D67">
-        <v>0.02108066084713668</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05496661744394015</v>
+      </c>
+      <c r="E67">
+        <v>0.0171525439523195</v>
+      </c>
+      <c r="F67">
+        <v>0.03320210154865586</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.04295626708004449</v>
+        <v>0.1158893514074882</v>
       </c>
       <c r="C68">
-        <v>0.065422177673385</v>
+        <v>0.03165767485813043</v>
       </c>
       <c r="D68">
-        <v>-0.2284592662570603</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2601775613249491</v>
+      </c>
+      <c r="E68">
+        <v>-0.08597119619381077</v>
+      </c>
+      <c r="F68">
+        <v>-0.00589708005054306</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.01585765075201076</v>
+        <v>0.04000389586124432</v>
       </c>
       <c r="C69">
-        <v>0.03148550950269644</v>
+        <v>0.00135308993832826</v>
       </c>
       <c r="D69">
-        <v>-0.01346273577234711</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.007039865121416578</v>
+      </c>
+      <c r="E69">
+        <v>0.02247318600227649</v>
+      </c>
+      <c r="F69">
+        <v>-0.0003581711009095466</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.00860265092177805</v>
+        <v>0.06596384455642035</v>
       </c>
       <c r="C70">
-        <v>0.02514246801167988</v>
+        <v>-0.02786998409259162</v>
       </c>
       <c r="D70">
-        <v>-0.04647942859912908</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02470617601293131</v>
+      </c>
+      <c r="E70">
+        <v>-0.03846062857492242</v>
+      </c>
+      <c r="F70">
+        <v>0.1830376545693137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.05177373466090142</v>
+        <v>0.1359222696722021</v>
       </c>
       <c r="C71">
-        <v>0.07815335183558446</v>
+        <v>0.03597685028961225</v>
       </c>
       <c r="D71">
-        <v>-0.2390490042628054</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2731115271471542</v>
+      </c>
+      <c r="E71">
+        <v>-0.09609001490938106</v>
+      </c>
+      <c r="F71">
+        <v>-0.01128716471872899</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.07369838591753319</v>
+        <v>0.1416567961575906</v>
       </c>
       <c r="C72">
-        <v>0.115544501521214</v>
+        <v>0.02608248202960999</v>
       </c>
       <c r="D72">
-        <v>-0.0230112071569337</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0004313381621250706</v>
+      </c>
+      <c r="E72">
+        <v>0.03870668646955044</v>
+      </c>
+      <c r="F72">
+        <v>-0.03316182473290827</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.09068070081856712</v>
+        <v>0.2017355542264278</v>
       </c>
       <c r="C73">
-        <v>0.1879735927446524</v>
+        <v>0.0122037983101251</v>
       </c>
       <c r="D73">
-        <v>-0.02995779799168069</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01736011700849443</v>
+      </c>
+      <c r="E73">
+        <v>0.06412733867573284</v>
+      </c>
+      <c r="F73">
+        <v>-0.03564508032766071</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.05069774258081394</v>
+        <v>0.09460249196486772</v>
       </c>
       <c r="C74">
-        <v>0.09549193961035489</v>
+        <v>0.01318759247974332</v>
       </c>
       <c r="D74">
-        <v>0.0007843350484809599</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01700714348548904</v>
+      </c>
+      <c r="E74">
+        <v>0.04351719571039053</v>
+      </c>
+      <c r="F74">
+        <v>-0.05815129901024731</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.077329169008089</v>
+        <v>0.1277178231102022</v>
       </c>
       <c r="C75">
-        <v>0.1179065734486574</v>
+        <v>0.02794212619782389</v>
       </c>
       <c r="D75">
-        <v>-0.001425313525221282</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03024293284717536</v>
+      </c>
+      <c r="E75">
+        <v>0.05786616666676698</v>
+      </c>
+      <c r="F75">
+        <v>-0.02043696038435323</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0001535408119655547</v>
+        <v>0.0001028444195801243</v>
       </c>
       <c r="C76">
-        <v>0.0003906933137219556</v>
+        <v>4.665655386482662e-05</v>
       </c>
       <c r="D76">
-        <v>-0.0002449731252198212</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-8.216275559916613e-05</v>
+      </c>
+      <c r="E76">
+        <v>0.0001649122426512058</v>
+      </c>
+      <c r="F76">
+        <v>-8.537285387990204e-05</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.04885722415847936</v>
+        <v>0.08724784673877664</v>
       </c>
       <c r="C77">
-        <v>0.0820351133180177</v>
+        <v>0.007986023920304208</v>
       </c>
       <c r="D77">
-        <v>0.07540562195132527</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1135378498543095</v>
+      </c>
+      <c r="E77">
+        <v>0.0391298115549913</v>
+      </c>
+      <c r="F77">
+        <v>-0.03038714886616471</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.09734146578757702</v>
+        <v>0.1009165776257964</v>
       </c>
       <c r="C78">
-        <v>0.1158081597574161</v>
+        <v>0.03958068765862282</v>
       </c>
       <c r="D78">
-        <v>0.03038474595132263</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1160930737469728</v>
+      </c>
+      <c r="E78">
+        <v>0.07442407455972995</v>
+      </c>
+      <c r="F78">
+        <v>-0.04490524092270586</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.07793861512600662</v>
+        <v>0.1642443887624693</v>
       </c>
       <c r="C79">
-        <v>0.1324652759684748</v>
+        <v>0.02256411275530333</v>
       </c>
       <c r="D79">
-        <v>-0.015349120879061</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01394910406973959</v>
+      </c>
+      <c r="E79">
+        <v>0.04554114964046787</v>
+      </c>
+      <c r="F79">
+        <v>-0.01140152710970867</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.0349967069972422</v>
+        <v>0.08321233530102309</v>
       </c>
       <c r="C80">
-        <v>0.07853618761010844</v>
+        <v>-0.0009490497365694391</v>
       </c>
       <c r="D80">
-        <v>0.03325671768310137</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05635279576048822</v>
+      </c>
+      <c r="E80">
+        <v>0.03677885329544143</v>
+      </c>
+      <c r="F80">
+        <v>0.02254002024711235</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.07727531124187473</v>
+        <v>0.1208982588973528</v>
       </c>
       <c r="C81">
-        <v>0.1111355815324011</v>
+        <v>0.03184902673129254</v>
       </c>
       <c r="D81">
-        <v>0.01214111822505117</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01441401176697685</v>
+      </c>
+      <c r="E81">
+        <v>0.05603050742509916</v>
+      </c>
+      <c r="F81">
+        <v>-0.01837761108640642</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.0825939000756134</v>
+        <v>0.1656685688755836</v>
       </c>
       <c r="C82">
-        <v>0.144472308139303</v>
+        <v>0.02425133316888405</v>
       </c>
       <c r="D82">
-        <v>-0.0004994707825421753</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.003915548331813862</v>
+      </c>
+      <c r="E82">
+        <v>0.02798769029209061</v>
+      </c>
+      <c r="F82">
+        <v>-0.08228577004083948</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.03326915090201367</v>
+        <v>0.05969264362504741</v>
       </c>
       <c r="C83">
-        <v>0.06098817783317997</v>
+        <v>0.00277465097119399</v>
       </c>
       <c r="D83">
-        <v>0.0212388717214792</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05091680254656399</v>
+      </c>
+      <c r="E83">
+        <v>0.004733198907298544</v>
+      </c>
+      <c r="F83">
+        <v>0.0302008696824432</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.04156014970826261</v>
+        <v>0.05884101803730785</v>
       </c>
       <c r="C84">
-        <v>0.05942427225089041</v>
+        <v>0.01115983367270135</v>
       </c>
       <c r="D84">
-        <v>0.04154645633813182</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.06343577870973835</v>
+      </c>
+      <c r="E84">
+        <v>0.006317442794687706</v>
+      </c>
+      <c r="F84">
+        <v>-0.00407977913479586</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.07528371276377373</v>
+        <v>0.136511388605101</v>
       </c>
       <c r="C85">
-        <v>0.1141699535792125</v>
+        <v>0.02783046762283656</v>
       </c>
       <c r="D85">
-        <v>-0.007658627849270666</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009492898965768394</v>
+      </c>
+      <c r="E85">
+        <v>0.03754278413420425</v>
+      </c>
+      <c r="F85">
+        <v>-0.04673039633320129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.03363416479301882</v>
+        <v>0.09532650806863864</v>
       </c>
       <c r="C86">
-        <v>0.0742892352758574</v>
+        <v>-0.005513870924710653</v>
       </c>
       <c r="D86">
-        <v>-0.09642516797110971</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.04000529423615094</v>
+      </c>
+      <c r="E86">
+        <v>0.215593682512188</v>
+      </c>
+      <c r="F86">
+        <v>0.9087737413210191</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.07725471858389139</v>
+        <v>0.09672413578758166</v>
       </c>
       <c r="C87">
-        <v>0.1198294414388864</v>
+        <v>0.02005963608403863</v>
       </c>
       <c r="D87">
-        <v>0.05444049349284168</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09413854723901262</v>
+      </c>
+      <c r="E87">
+        <v>-0.0521714650225412</v>
+      </c>
+      <c r="F87">
+        <v>-0.04964817309347479</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.02746485050064362</v>
+        <v>0.06092311021719414</v>
       </c>
       <c r="C88">
-        <v>0.04920748121163246</v>
+        <v>0.002189899045511373</v>
       </c>
       <c r="D88">
-        <v>0.01468357828532266</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04918471397968507</v>
+      </c>
+      <c r="E88">
+        <v>0.02422190566222565</v>
+      </c>
+      <c r="F88">
+        <v>-0.01333765548313708</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.0346774283820041</v>
+        <v>0.1331128777432482</v>
       </c>
       <c r="C89">
-        <v>0.09274656429720093</v>
+        <v>0.01318822850501719</v>
       </c>
       <c r="D89">
-        <v>-0.2581568182969185</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.24952861998051</v>
+      </c>
+      <c r="E89">
+        <v>-0.09042948897466138</v>
+      </c>
+      <c r="F89">
+        <v>0.008133779793837809</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.05033932182605853</v>
+        <v>0.150544121035812</v>
       </c>
       <c r="C90">
-        <v>0.07784892697956361</v>
+        <v>0.03243025727143403</v>
       </c>
       <c r="D90">
-        <v>-0.2408004866016366</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2700509928368128</v>
+      </c>
+      <c r="E90">
+        <v>-0.1121771335697464</v>
+      </c>
+      <c r="F90">
+        <v>0.003624875375390544</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.05780225082167434</v>
+        <v>0.1204461902064195</v>
       </c>
       <c r="C91">
-        <v>0.1025543938783658</v>
+        <v>0.01907826002105439</v>
       </c>
       <c r="D91">
-        <v>-0.02921317419312106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01392166169047105</v>
+      </c>
+      <c r="E91">
+        <v>0.05588671685198303</v>
+      </c>
+      <c r="F91">
+        <v>0.0008341903991875071</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.03898831135517408</v>
+        <v>0.1475117856753777</v>
       </c>
       <c r="C92">
-        <v>0.09140242557661574</v>
+        <v>0.02387468813918052</v>
       </c>
       <c r="D92">
-        <v>-0.2493280513140425</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2924716873321219</v>
+      </c>
+      <c r="E92">
+        <v>-0.1012921210068431</v>
+      </c>
+      <c r="F92">
+        <v>0.01330269447129822</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.0519014191031047</v>
+        <v>0.1518729594230518</v>
       </c>
       <c r="C93">
-        <v>0.09529967009787842</v>
+        <v>0.02809136949952562</v>
       </c>
       <c r="D93">
-        <v>-0.2555544976493176</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2692177830041259</v>
+      </c>
+      <c r="E93">
+        <v>-0.07769807426491841</v>
+      </c>
+      <c r="F93">
+        <v>-0.003191559715626565</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.07805363109923376</v>
+        <v>0.1298947549151171</v>
       </c>
       <c r="C94">
-        <v>0.1302511735595357</v>
+        <v>0.02468974075262498</v>
       </c>
       <c r="D94">
-        <v>0.01587449949598809</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04253534890766193</v>
+      </c>
+      <c r="E94">
+        <v>0.0571041590541841</v>
+      </c>
+      <c r="F94">
+        <v>-0.03738876454824559</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.05831157327101035</v>
+        <v>0.1271386026735522</v>
       </c>
       <c r="C95">
-        <v>0.1139919792210746</v>
+        <v>0.003380253215023049</v>
       </c>
       <c r="D95">
-        <v>0.04963820262161325</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.0925092234959046</v>
+      </c>
+      <c r="E95">
+        <v>0.04693967446422725</v>
+      </c>
+      <c r="F95">
+        <v>0.008897839898577425</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.8763769751381325</v>
+        <v>0.1066101871418091</v>
       </c>
       <c r="C96">
-        <v>0.4726582370334111</v>
+        <v>-0.9874619103573303</v>
       </c>
       <c r="D96">
-        <v>-0.01197041871309378</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.04838679828460893</v>
+      </c>
+      <c r="E96">
+        <v>0.05518389869663151</v>
+      </c>
+      <c r="F96">
+        <v>-0.04177571272097932</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.05902874885772787</v>
+        <v>0.1930784791300424</v>
       </c>
       <c r="C97">
-        <v>0.1604115149993423</v>
+        <v>-0.007311961037482734</v>
       </c>
       <c r="D97">
-        <v>-0.07362740093487162</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.01745376503771704</v>
+      </c>
+      <c r="E97">
+        <v>0.01833879089094973</v>
+      </c>
+      <c r="F97">
+        <v>0.08609656145091604</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.0790599488235622</v>
+        <v>0.2046213295059565</v>
       </c>
       <c r="C98">
-        <v>0.176039879830594</v>
+        <v>0.006906441473400994</v>
       </c>
       <c r="D98">
-        <v>0.00989957200286474</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01376818134887454</v>
+      </c>
+      <c r="E98">
+        <v>-0.08412183809048383</v>
+      </c>
+      <c r="F98">
+        <v>0.09036157206199948</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.0198759953531401</v>
+        <v>0.0553245093821013</v>
       </c>
       <c r="C99">
-        <v>0.05592623787399977</v>
+        <v>-0.004714337878905433</v>
       </c>
       <c r="D99">
-        <v>0.01186656088523142</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.03931413263974837</v>
+      </c>
+      <c r="E99">
+        <v>0.02257075488366263</v>
+      </c>
+      <c r="F99">
+        <v>-0.001401490610097563</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.02511134340541391</v>
+        <v>0.1257957109970149</v>
       </c>
       <c r="C100">
-        <v>0.121279357368129</v>
+        <v>-0.05440613928592362</v>
       </c>
       <c r="D100">
-        <v>0.6198011077820166</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3430582316491567</v>
+      </c>
+      <c r="E100">
+        <v>-0.8890077568547085</v>
+      </c>
+      <c r="F100">
+        <v>0.1448436768611926</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01860756135242441</v>
+        <v>0.02722443045961218</v>
       </c>
       <c r="C101">
-        <v>0.01695061597971177</v>
+        <v>0.008330544877719781</v>
       </c>
       <c r="D101">
-        <v>0.005931807806027434</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03123274195393249</v>
+      </c>
+      <c r="E101">
+        <v>0.01057291512342888</v>
+      </c>
+      <c r="F101">
+        <v>0.01271933554814406</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
